--- a/exports/lsmean_files/LU 5 Early-2 - LSMeans.xlsx
+++ b/exports/lsmean_files/LU 5 Early-2 - LSMeans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Genotype</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">Seed weight (grams)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sq</t>
   </si>
   <si>
     <t xml:space="preserve">Test weight</t>
@@ -535,13 +538,14 @@
     <col min="6" max="6" width="19.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="13.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="19.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="11.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="13.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="5.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="11.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="13.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -551,6 +555,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -583,10 +588,13 @@
       <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>27</v>
@@ -610,15 +618,18 @@
         <v>13.3</v>
       </c>
       <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <v>55.8</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>28.5</v>
@@ -642,15 +653,18 @@
         <v>14.6</v>
       </c>
       <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <v>57.7</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>2001.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>28</v>
@@ -674,15 +688,18 @@
         <v>15.5</v>
       </c>
       <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>57.5</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>1733.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>24</v>
@@ -706,15 +723,18 @@
         <v>14.8</v>
       </c>
       <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>57.6</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="K7" s="1" t="n">
         <v>1824.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>31.5</v>
@@ -738,15 +758,18 @@
         <v>14</v>
       </c>
       <c r="I8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="K8" s="1" t="n">
         <v>2021.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>35</v>
@@ -770,15 +793,18 @@
         <v>12.6</v>
       </c>
       <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="K9" s="1" t="n">
         <v>1792.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>31</v>
@@ -802,15 +828,18 @@
         <v>17.8</v>
       </c>
       <c r="I10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="K10" s="1" t="n">
         <v>1708.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>38</v>
@@ -834,15 +863,18 @@
         <v>14.2</v>
       </c>
       <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="n">
         <v>58.3</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="K11" s="1" t="n">
         <v>2077.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>31</v>
@@ -866,15 +898,18 @@
         <v>12.7</v>
       </c>
       <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="n">
         <v>56.9</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="K12" s="1" t="n">
         <v>1961.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>29</v>
@@ -898,15 +933,18 @@
         <v>14.6</v>
       </c>
       <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="n">
         <v>57.8</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="K13" s="1" t="n">
         <v>1894.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>29.5</v>
@@ -930,15 +968,18 @@
         <v>12.7</v>
       </c>
       <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="K14" s="1" t="n">
         <v>2054.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>30.5</v>
@@ -962,15 +1003,18 @@
         <v>16.6</v>
       </c>
       <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="K15" s="1" t="n">
         <v>1891</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>27.5</v>
@@ -994,15 +1038,18 @@
         <v>14.1</v>
       </c>
       <c r="I16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="1" t="n">
         <v>57.8</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="K16" s="1" t="n">
         <v>1986</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>28</v>
@@ -1026,15 +1073,18 @@
         <v>14.6</v>
       </c>
       <c r="I17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="n">
         <v>58.2</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="K17" s="1" t="n">
         <v>1965.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>52.5</v>
@@ -1058,15 +1108,18 @@
         <v>16.1</v>
       </c>
       <c r="I18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="K18" s="1" t="n">
         <v>1415.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>27</v>
@@ -1090,15 +1143,18 @@
         <v>13.5</v>
       </c>
       <c r="I19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="n">
         <v>58.3</v>
       </c>
-      <c r="J19" s="1" t="n">
+      <c r="K19" s="1" t="n">
         <v>1960</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>56.5</v>
@@ -1122,15 +1178,18 @@
         <v>13.2</v>
       </c>
       <c r="I20" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J20" s="1" t="n">
         <v>57.4</v>
       </c>
-      <c r="J20" s="1" t="n">
+      <c r="K20" s="1" t="n">
         <v>1526.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>32</v>
@@ -1154,15 +1213,18 @@
         <v>13.7</v>
       </c>
       <c r="I21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="n">
         <v>58.2</v>
       </c>
-      <c r="J21" s="1" t="n">
+      <c r="K21" s="1" t="n">
         <v>2067.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>56.5</v>
@@ -1186,15 +1248,18 @@
         <v>14.7</v>
       </c>
       <c r="I22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="J22" s="1" t="n">
+      <c r="K22" s="1" t="n">
         <v>1154.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>47.5</v>
@@ -1218,15 +1283,18 @@
         <v>13.1</v>
       </c>
       <c r="I23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="n">
         <v>57.6</v>
       </c>
-      <c r="J23" s="1" t="n">
+      <c r="K23" s="1" t="n">
         <v>1453.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>41</v>
@@ -1250,15 +1318,18 @@
         <v>16</v>
       </c>
       <c r="I24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="n">
         <v>57.5</v>
       </c>
-      <c r="J24" s="1" t="n">
+      <c r="K24" s="1" t="n">
         <v>1581</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>60</v>
@@ -1282,15 +1353,18 @@
         <v>17.3</v>
       </c>
       <c r="I25" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J25" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="J25" s="1" t="n">
+      <c r="K25" s="1" t="n">
         <v>1315.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>29.5</v>
@@ -1314,15 +1388,18 @@
         <v>13.1</v>
       </c>
       <c r="I26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="n">
         <v>58.7</v>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="K26" s="1" t="n">
         <v>1996.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>48.5</v>
@@ -1346,15 +1423,18 @@
         <v>15.1</v>
       </c>
       <c r="I27" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J27" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="J27" s="1" t="n">
+      <c r="K27" s="1" t="n">
         <v>1651</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>28</v>
@@ -1378,15 +1458,18 @@
         <v>15.1</v>
       </c>
       <c r="I28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="n">
         <v>58.2</v>
       </c>
-      <c r="J28" s="1" t="n">
+      <c r="K28" s="1" t="n">
         <v>1629.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>26.5</v>
@@ -1410,15 +1493,18 @@
         <v>14.4</v>
       </c>
       <c r="I29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="n">
         <v>57.2</v>
       </c>
-      <c r="J29" s="1" t="n">
+      <c r="K29" s="1" t="n">
         <v>1987</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>27.5</v>
@@ -1442,15 +1528,18 @@
         <v>15.2</v>
       </c>
       <c r="I30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="J30" s="1" t="n">
+      <c r="K30" s="1" t="n">
         <v>2054.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>31</v>
@@ -1474,15 +1563,18 @@
         <v>14</v>
       </c>
       <c r="I31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="n">
         <v>57.8</v>
       </c>
-      <c r="J31" s="1" t="n">
+      <c r="K31" s="1" t="n">
         <v>2104.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>27</v>
@@ -1506,15 +1598,18 @@
         <v>14.4</v>
       </c>
       <c r="I32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="n">
         <v>57.7</v>
       </c>
-      <c r="J32" s="1" t="n">
+      <c r="K32" s="1" t="n">
         <v>2141</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>25</v>
@@ -1538,15 +1633,18 @@
         <v>12.2</v>
       </c>
       <c r="I33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="n">
         <v>57.6</v>
       </c>
-      <c r="J33" s="1" t="n">
+      <c r="K33" s="1" t="n">
         <v>1802.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>30.5</v>
@@ -1570,15 +1668,18 @@
         <v>12.7</v>
       </c>
       <c r="I34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="n">
         <v>55.7</v>
       </c>
-      <c r="J34" s="1" t="n">
+      <c r="K34" s="1" t="n">
         <v>1761</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>22</v>
@@ -1602,15 +1703,18 @@
         <v>12.6</v>
       </c>
       <c r="I35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="J35" s="1" t="n">
+      <c r="K35" s="1" t="n">
         <v>1875.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>25</v>
@@ -1634,15 +1738,18 @@
         <v>14.6</v>
       </c>
       <c r="I36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1" t="n">
         <v>57.4</v>
       </c>
-      <c r="J36" s="1" t="n">
+      <c r="K36" s="1" t="n">
         <v>1988.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>24.5</v>
@@ -1665,14 +1772,17 @@
       <c r="H37" s="1" t="n">
         <v>12.9</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1" t="n">
+      <c r="I37" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="n">
         <v>1991.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>29.5</v>
@@ -1696,15 +1806,18 @@
         <v>13.4</v>
       </c>
       <c r="I38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1" t="n">
         <v>58.2</v>
       </c>
-      <c r="J38" s="1" t="n">
+      <c r="K38" s="1" t="n">
         <v>1807.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>26.5</v>
@@ -1728,15 +1841,18 @@
         <v>11.6</v>
       </c>
       <c r="I39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="J39" s="1" t="n">
+      <c r="K39" s="1" t="n">
         <v>2082.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>34</v>
@@ -1760,15 +1876,18 @@
         <v>14</v>
       </c>
       <c r="I40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1" t="n">
         <v>58.3</v>
       </c>
-      <c r="J40" s="1" t="n">
+      <c r="K40" s="1" t="n">
         <v>1845.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>24</v>
@@ -1792,15 +1911,18 @@
         <v>12.7</v>
       </c>
       <c r="I41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="J41" s="1" t="n">
+      <c r="K41" s="1" t="n">
         <v>1858.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>30</v>
@@ -1824,15 +1946,18 @@
         <v>14.1</v>
       </c>
       <c r="I42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="J42" s="1" t="n">
+      <c r="K42" s="1" t="n">
         <v>1960.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>24.5</v>
@@ -1856,15 +1981,18 @@
         <v>11.7</v>
       </c>
       <c r="I43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="J43" s="1" t="n">
+      <c r="K43" s="1" t="n">
         <v>2005.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
